--- a/TestData/Logindetails.xlsx
+++ b/TestData/Logindetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haresh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hareshpython\HareshPyFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7844A6E-5F6C-4AE4-9159-FB29EDB6B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53ABB71-A6A3-4E2A-992F-89DE0EAD26C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BC5DD2A-9A8D-4798-B967-45881EC1E0AA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve"> admin@yourstore.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>adminn</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,10 +474,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
